--- a/ig/ch-core/StructureDefinition-ch-core-medicationrequest.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-core/StructureDefinition-ch-core-medicationrequest.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -842,7 +842,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|Device)
 </t>
   </si>
   <si>
@@ -1112,16 +1112,19 @@
 </t>
   </si>
   <si>
-    <t>CH Core Dosage</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>How the medication should be taken</t>
+  </si>
+  <si>
+    <t>Indicates how the medication is to be used by the patient.</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>see dosageInstruction mapping</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest</t>
@@ -1832,15 +1835,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.06640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.83203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1851,27 +1854,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="161.5859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="138.53125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="50.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="128.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="110.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6170,13 +6173,13 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>83</v>
+        <v>352</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>83</v>
@@ -6187,10 +6190,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6213,13 +6216,13 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6270,7 +6273,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6288,10 +6291,10 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>83</v>
@@ -6302,10 +6305,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6328,13 +6331,13 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6385,7 +6388,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6406,7 +6409,7 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>83</v>
@@ -6417,10 +6420,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6449,7 +6452,7 @@
         <v>138</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>140</v>
@@ -6502,7 +6505,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6523,7 +6526,7 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>83</v>
@@ -6534,14 +6537,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6563,10 +6566,10 @@
         <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>140</v>
@@ -6621,7 +6624,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6653,10 +6656,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6679,16 +6682,16 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6738,7 +6741,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6759,7 +6762,7 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>83</v>
@@ -6770,10 +6773,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6796,13 +6799,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6853,7 +6856,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6874,7 +6877,7 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>83</v>
@@ -6885,10 +6888,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6917,7 +6920,7 @@
         <v>138</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>140</v>
@@ -6970,7 +6973,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -6991,7 +6994,7 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>83</v>
@@ -7002,14 +7005,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7031,10 +7034,10 @@
         <v>137</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>140</v>
@@ -7089,7 +7092,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7121,10 +7124,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7147,13 +7150,13 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7204,7 +7207,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7225,7 +7228,7 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>83</v>
@@ -7236,10 +7239,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7262,13 +7265,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7319,7 +7322,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7340,7 +7343,7 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>83</v>
@@ -7351,10 +7354,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7377,13 +7380,13 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7434,7 +7437,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7455,7 +7458,7 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>83</v>
@@ -7466,10 +7469,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7492,19 +7495,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7553,7 +7556,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7571,10 +7574,10 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>83</v>
@@ -7585,10 +7588,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7611,16 +7614,16 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7670,7 +7673,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7688,24 +7691,24 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7728,13 +7731,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7785,7 +7788,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7803,24 +7806,24 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7843,16 +7846,16 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7902,7 +7905,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -7920,10 +7923,10 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>83</v>
@@ -7934,10 +7937,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7960,13 +7963,13 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8017,7 +8020,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8038,7 +8041,7 @@
         <v>83</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>287</v>
@@ -8049,10 +8052,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8075,13 +8078,13 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8132,7 +8135,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8150,10 +8153,10 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>83</v>
@@ -8164,10 +8167,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8190,13 +8193,13 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8247,7 +8250,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8268,7 +8271,7 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>83</v>
@@ -8279,10 +8282,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8311,7 +8314,7 @@
         <v>138</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>140</v>
@@ -8364,7 +8367,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8385,7 +8388,7 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>83</v>
@@ -8396,14 +8399,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8425,10 +8428,10 @@
         <v>137</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>140</v>
@@ -8483,7 +8486,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8515,10 +8518,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8541,16 +8544,16 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8579,26 +8582,26 @@
         <v>174</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>91</v>
@@ -8616,27 +8619,27 @@
         <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>83</v>
@@ -8661,13 +8664,13 @@
         <v>170</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8697,7 +8700,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>83</v>
@@ -8715,7 +8718,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>91</v>
@@ -8733,24 +8736,24 @@
         <v>83</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8776,10 +8779,10 @@
         <v>170</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8809,10 +8812,10 @@
         <v>174</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>83</v>
@@ -8830,7 +8833,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -8848,24 +8851,24 @@
         <v>83</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8888,13 +8891,13 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8945,7 +8948,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -8960,13 +8963,13 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>83</v>
@@ -8977,14 +8980,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9003,16 +9006,16 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9062,7 +9065,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9083,7 +9086,7 @@
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>83</v>
@@ -9094,10 +9097,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9120,16 +9123,16 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9179,7 +9182,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9194,13 +9197,13 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>83</v>

--- a/ig/ch-core/StructureDefinition-ch-core-medicationrequest.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-medicationrequest.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -374,7 +374,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -561,7 +561,7 @@
     <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -616,7 +616,7 @@
     <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category|4.0.1</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -676,7 +676,7 @@
   </si>
   <si>
     <t>boolean
-Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)</t>
+Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)</t>
   </si>
   <si>
     <t>Reported rather than primary record</t>
@@ -707,7 +707,7 @@
     <t>A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -767,7 +767,7 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -795,7 +795,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -861,7 +861,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -895,7 +895,7 @@
     <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -907,7 +907,7 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -938,7 +938,7 @@
     <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -959,7 +959,7 @@
     <t>MedicationRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1009,7 +1009,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ServiceRequest|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|MedicationRequest|4.0.1|ServiceRequest|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1058,7 +1058,7 @@
     <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy|4.0.1</t>
   </si>
   <si>
     <t>Act.code where classCode = LIST and moodCode = EVN</t>
@@ -1067,7 +1067,7 @@
     <t>MedicationRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1218,7 +1218,7 @@
     <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1345,7 +1345,7 @@
     <t>MedicationRequest.dispenseRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1453,7 +1453,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1495,7 +1495,7 @@
     <t>MedicationRequest.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
